--- a/Requisitos_Funcionales-No_Funcionales.xlsx
+++ b/Requisitos_Funcionales-No_Funcionales.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Requisitos funcionales</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Disponibilidad web 99.9%</t>
   </si>
   <si>
-    <t xml:space="preserve">Poder poner reseñas para las películas y Likes etc</t>
+    <t xml:space="preserve">Poder poner reseñas para las películas, puntuación y añadir a favoritos etc</t>
   </si>
   <si>
     <t xml:space="preserve">Rendimiento manejar una cantidad decente de usuarios simultáneos</t>
@@ -64,7 +64,10 @@
     <t xml:space="preserve">Integridad en la conexión entre spring, firebase y la Api de TMDB.</t>
   </si>
   <si>
-    <t xml:space="preserve">Búsqueda por opiniones o valoración (cantidad en puntuación)</t>
+    <t xml:space="preserve">Filtro de criticas por amigos o general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda por mas comentadas o valoración (cantidad en puntuación)</t>
   </si>
   <si>
     <t xml:space="preserve">Búsqueda por nombre de película, año, temática, cantidad likes, etc</t>
@@ -73,7 +76,7 @@
     <t xml:space="preserve">Almacenar a quien están siguiendo (o amigos), y poder desvicularse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Borrar los datos del perfil.</t>
+    <t xml:space="preserve">Borrar los datos del perfil.(OPCIONAL)</t>
   </si>
 </sst>
 </file>
@@ -88,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +113,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,16 +171,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,97 +371,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="A1:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="88.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
